--- a/AmazonSalesAnalysis.xlsx
+++ b/AmazonSalesAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rose\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C3A4CCC-7778-4FF8-A9A5-18954FDB1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129D0548-08C3-7344-8A15-DF03625504BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{82A40D99-BD10-4E72-8A2C-7E6088D08AF3}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="Slicer_Region">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -32,6 +32,17 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -438,7 +449,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -954,7 +965,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1003,13 +1014,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1040,7 +1051,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1548,7 +1559,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2095,7 +2106,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2652,7 +2663,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3141,7 +3152,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3562,7 +3573,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4028,7 +4039,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4493,7 +4504,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14076,1918 +14087,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E814878-69FD-491E-92FF-906C4DA02B1A}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D68:D69" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FBFC85C-5980-4AA1-88BC-CD13C2E44E4D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A68:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F70E647B-CC19-4B68-99E7-9564084B0FE2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B9E280A-6F71-4FD8-8C69-E2AB525FA7E1}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="D8:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="13" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91616F67-51D7-420E-A08E-E04F9E7776BE}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="O25:P33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
-      <items count="101">
-        <item x="88"/>
-        <item x="71"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="36"/>
-        <item x="95"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="96"/>
-        <item x="54"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="51"/>
-        <item x="60"/>
-        <item x="50"/>
-        <item x="45"/>
-        <item x="31"/>
-        <item x="55"/>
-        <item x="97"/>
-        <item x="58"/>
-        <item x="89"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="40"/>
-        <item x="17"/>
-        <item x="72"/>
-        <item x="67"/>
-        <item x="21"/>
-        <item x="44"/>
-        <item x="22"/>
-        <item x="63"/>
-        <item x="42"/>
-        <item x="94"/>
-        <item x="69"/>
-        <item x="14"/>
-        <item x="86"/>
-        <item x="48"/>
-        <item x="81"/>
-        <item x="24"/>
-        <item x="12"/>
-        <item x="76"/>
-        <item x="91"/>
-        <item x="98"/>
-        <item x="1"/>
-        <item x="77"/>
-        <item x="8"/>
-        <item x="56"/>
-        <item x="35"/>
-        <item x="85"/>
-        <item x="83"/>
-        <item x="64"/>
-        <item x="5"/>
-        <item x="52"/>
-        <item x="25"/>
-        <item x="66"/>
-        <item x="90"/>
-        <item x="84"/>
-        <item x="49"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item x="57"/>
-        <item x="61"/>
-        <item x="9"/>
-        <item x="87"/>
-        <item x="2"/>
-        <item x="73"/>
-        <item x="92"/>
-        <item x="65"/>
-        <item x="20"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="32"/>
-        <item x="0"/>
-        <item x="82"/>
-        <item x="37"/>
-        <item x="53"/>
-        <item x="16"/>
-        <item x="59"/>
-        <item x="41"/>
-        <item x="18"/>
-        <item x="93"/>
-        <item x="39"/>
-        <item x="6"/>
-        <item x="19"/>
-        <item x="80"/>
-        <item x="30"/>
-        <item x="46"/>
-        <item x="79"/>
-        <item x="74"/>
-        <item x="70"/>
-        <item x="4"/>
-        <item x="99"/>
-        <item x="62"/>
-        <item x="75"/>
-        <item x="38"/>
-        <item x="33"/>
-        <item x="68"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="12" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Total Cost" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67AE317A-1700-444D-B44A-7D2A0DD71526}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A76:B85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="16"/>
-    <field x="14"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Total Revenue" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B156BB66-892C-4F26-9272-F9B78903888D}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="O9:P22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C74502C-98C1-491C-944C-BBDE36BFEB0E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A52:C65" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="101">
-        <item x="50"/>
-        <item x="41"/>
-        <item x="27"/>
-        <item x="0"/>
-        <item x="56"/>
-        <item x="68"/>
-        <item x="63"/>
-        <item x="93"/>
-        <item x="47"/>
-        <item x="18"/>
-        <item x="83"/>
-        <item x="86"/>
-        <item x="94"/>
-        <item x="6"/>
-        <item x="72"/>
-        <item x="10"/>
-        <item x="95"/>
-        <item x="77"/>
-        <item x="62"/>
-        <item x="96"/>
-        <item x="36"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="49"/>
-        <item x="99"/>
-        <item x="39"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="38"/>
-        <item x="15"/>
-        <item x="88"/>
-        <item x="29"/>
-        <item x="78"/>
-        <item x="42"/>
-        <item x="55"/>
-        <item x="92"/>
-        <item x="66"/>
-        <item x="7"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="81"/>
-        <item x="43"/>
-        <item x="80"/>
-        <item x="4"/>
-        <item x="52"/>
-        <item x="70"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="79"/>
-        <item x="51"/>
-        <item x="54"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="31"/>
-        <item x="87"/>
-        <item x="14"/>
-        <item x="59"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="91"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="33"/>
-        <item x="5"/>
-        <item x="57"/>
-        <item x="17"/>
-        <item x="69"/>
-        <item x="8"/>
-        <item x="98"/>
-        <item x="21"/>
-        <item x="71"/>
-        <item x="32"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="97"/>
-        <item x="22"/>
-        <item x="67"/>
-        <item x="89"/>
-        <item x="82"/>
-        <item x="16"/>
-        <item x="90"/>
-        <item x="46"/>
-        <item x="12"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="40"/>
-        <item x="35"/>
-        <item x="73"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16112C9C-02DE-4BD1-8B94-F1E1E66EC294}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A12:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -16344,7 +14443,1221 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD94FC26-9F5A-41DA-B8F6-405ECF012A32}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="50">
+  <location ref="A28:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="34" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="35" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="36" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="47" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD47FB9-EF9D-4959-9B11-14A5DEE5FD7E}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="R23:S31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Cost" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C74502C-98C1-491C-944C-BBDE36BFEB0E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A52:C65" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3FBFC85C-5980-4AA1-88BC-CD13C2E44E4D}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A68:B73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F70E647B-CC19-4B68-99E7-9564084B0FE2}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81838BC8-2057-4747-99A0-E1F5B7F5FE09}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="U21:V30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
@@ -16553,6 +15866,625 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E814878-69FD-491E-92FF-906C4DA02B1A}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D68:D69" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67AE317A-1700-444D-B44A-7D2A0DD71526}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A76:B85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="16"/>
+    <field x="14"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Revenue" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B9E280A-6F71-4FD8-8C69-E2AB525FA7E1}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="D8:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="101">
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="93"/>
+        <item x="47"/>
+        <item x="18"/>
+        <item x="83"/>
+        <item x="86"/>
+        <item x="94"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="10"/>
+        <item x="95"/>
+        <item x="77"/>
+        <item x="62"/>
+        <item x="96"/>
+        <item x="36"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="99"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="38"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="42"/>
+        <item x="55"/>
+        <item x="92"/>
+        <item x="66"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="81"/>
+        <item x="43"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="52"/>
+        <item x="70"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="79"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="31"/>
+        <item x="87"/>
+        <item x="14"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="91"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="33"/>
+        <item x="5"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="8"/>
+        <item x="98"/>
+        <item x="21"/>
+        <item x="71"/>
+        <item x="32"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="22"/>
+        <item x="67"/>
+        <item x="89"/>
+        <item x="82"/>
+        <item x="16"/>
+        <item x="90"/>
+        <item x="46"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="13" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -16894,8 +16826,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CD94FC26-9F5A-41DA-B8F6-405ECF012A32}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="50">
-  <location ref="A28:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B156BB66-892C-4F26-9272-F9B78903888D}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="O9:P22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0">
       <items count="8">
@@ -16910,7 +16842,23 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
@@ -17020,62 +16968,36 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item t="default"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="16"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -17100,6 +17022,15 @@
     <i>
       <x v="8"/>
     </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -17108,37 +17039,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Total Profit" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Units Sold" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="34" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="35" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="36" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="47" format="2" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17161,8 +17065,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD47FB9-EF9D-4959-9B11-14A5DEE5FD7E}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="R23:S31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91616F67-51D7-420E-A08E-E04F9E7776BE}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="O25:P33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
@@ -17291,7 +17195,111 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" showAll="0">
+      <items count="101">
+        <item x="88"/>
+        <item x="71"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="95"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="96"/>
+        <item x="54"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="51"/>
+        <item x="60"/>
+        <item x="50"/>
+        <item x="45"/>
+        <item x="31"/>
+        <item x="55"/>
+        <item x="97"/>
+        <item x="58"/>
+        <item x="89"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="40"/>
+        <item x="17"/>
+        <item x="72"/>
+        <item x="67"/>
+        <item x="21"/>
+        <item x="44"/>
+        <item x="22"/>
+        <item x="63"/>
+        <item x="42"/>
+        <item x="94"/>
+        <item x="69"/>
+        <item x="14"/>
+        <item x="86"/>
+        <item x="48"/>
+        <item x="81"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="76"/>
+        <item x="91"/>
+        <item x="98"/>
+        <item x="1"/>
+        <item x="77"/>
+        <item x="8"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="85"/>
+        <item x="83"/>
+        <item x="64"/>
+        <item x="5"/>
+        <item x="52"/>
+        <item x="25"/>
+        <item x="66"/>
+        <item x="90"/>
+        <item x="84"/>
+        <item x="49"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="9"/>
+        <item x="87"/>
+        <item x="2"/>
+        <item x="73"/>
+        <item x="92"/>
+        <item x="65"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="78"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="82"/>
+        <item x="37"/>
+        <item x="53"/>
+        <item x="16"/>
+        <item x="59"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="93"/>
+        <item x="39"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="80"/>
+        <item x="30"/>
+        <item x="46"/>
+        <item x="79"/>
+        <item x="74"/>
+        <item x="70"/>
+        <item x="4"/>
+        <item x="99"/>
+        <item x="62"/>
+        <item x="75"/>
+        <item x="38"/>
+        <item x="33"/>
+        <item x="68"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -17342,6 +17350,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="12" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Total Cost" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
@@ -17745,25 +17756,25 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.32421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.52734375" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="11.8359375" customWidth="1"/>
+    <col min="7" max="7" width="9.953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.89453125" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" customWidth="1"/>
+    <col min="10" max="10" width="11.02734375" customWidth="1"/>
+    <col min="11" max="11" width="10.4921875" customWidth="1"/>
+    <col min="12" max="12" width="14.390625" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.8359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17807,7 +17818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -17851,7 +17862,7 @@
         <v>951410.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -17895,7 +17906,7 @@
         <v>248406.36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -17939,7 +17950,7 @@
         <v>224598.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -17983,7 +17994,7 @@
         <v>19525.82</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -18027,7 +18038,7 @@
         <v>639077.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -18071,7 +18082,7 @@
         <v>285087.64</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -18115,7 +18126,7 @@
         <v>693911.51</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -18159,7 +18170,7 @@
         <v>510216.66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -18203,7 +18214,7 @@
         <v>152114.20000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -18247,7 +18258,7 @@
         <v>584073.87</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -18291,7 +18302,7 @@
         <v>7828.12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -18335,7 +18346,7 @@
         <v>306097.91999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -18379,7 +18390,7 @@
         <v>606834.72</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -18423,7 +18434,7 @@
         <v>1487261.02</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -18467,7 +18478,7 @@
         <v>122819.06</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -18511,7 +18522,7 @@
         <v>122865.12</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -18555,7 +18566,7 @@
         <v>1208744.24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -18599,7 +18610,7 @@
         <v>85033.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -18643,7 +18654,7 @@
         <v>634745.9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -18687,7 +18698,7 @@
         <v>337937.6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -18731,7 +18742,7 @@
         <v>714157</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -18775,7 +18786,7 @@
         <v>122029.78</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -18819,7 +18830,7 @@
         <v>122686.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -18863,7 +18874,7 @@
         <v>5270.67</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -18907,7 +18918,7 @@
         <v>127054.2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -18951,7 +18962,7 @@
         <v>315574.05</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -18995,7 +19006,7 @@
         <v>13009.18</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -19039,7 +19050,7 @@
         <v>14031.02</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -19083,7 +19094,7 @@
         <v>80241.84</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -19127,7 +19138,7 @@
         <v>392780.1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -19171,7 +19182,7 @@
         <v>1505888.07</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -19215,7 +19226,7 @@
         <v>53252.5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -19259,7 +19270,7 @@
         <v>369155</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -19303,7 +19314,7 @@
         <v>1367272.5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -19347,7 +19358,7 @@
         <v>404010.78</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -19391,7 +19402,7 @@
         <v>160609.54</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -19435,7 +19446,7 @@
         <v>9119.44</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -19479,7 +19490,7 @@
         <v>272672.40000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -19523,7 +19534,7 @@
         <v>846885</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -19567,7 +19578,7 @@
         <v>503358.75</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -19611,7 +19622,7 @@
         <v>75555.899999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -19655,7 +19666,7 @@
         <v>1257775.58</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -19699,7 +19710,7 @@
         <v>187545.03</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -19743,7 +19754,7 @@
         <v>10795.23</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -19787,7 +19798,7 @@
         <v>435499.2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -19831,7 +19842,7 @@
         <v>85223.58</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -19875,7 +19886,7 @@
         <v>1541705.29</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -19919,7 +19930,7 @@
         <v>6841.38</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -19963,7 +19974,7 @@
         <v>575916.48</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -20007,7 +20018,7 @@
         <v>159832.5</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -20051,7 +20062,7 @@
         <v>166635.35999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -20095,7 +20106,7 @@
         <v>23150.46</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -20139,7 +20150,7 @@
         <v>359941.17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -20183,7 +20194,7 @@
         <v>436446.25</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -20227,7 +20238,7 @@
         <v>18405.169999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -20271,7 +20282,7 @@
         <v>255718.08</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -20315,7 +20326,7 @@
         <v>727423.2</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -20359,7 +20370,7 @@
         <v>495007.89</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -20403,7 +20414,7 @@
         <v>46735.86</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -20447,7 +20458,7 @@
         <v>1254472.05</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -20491,7 +20502,7 @@
         <v>60418.38</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -20535,7 +20546,7 @@
         <v>455335</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -20579,7 +20590,7 @@
         <v>696647.5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -20623,7 +20634,7 @@
         <v>449159.04</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -20667,7 +20678,7 @@
         <v>296448.34999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -20711,7 +20722,7 @@
         <v>778415.99</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -20755,7 +20766,7 @@
         <v>216919.36</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -20799,7 +20810,7 @@
         <v>403773.12</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -20843,7 +20854,7 @@
         <v>1046233.75</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -20887,7 +20898,7 @@
         <v>539196.48</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -20931,7 +20942,7 @@
         <v>632512.5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -20975,7 +20986,7 @@
         <v>1621.93</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -21019,7 +21030,7 @@
         <v>89904.06</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -21063,7 +21074,7 @@
         <v>766835.04</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -21107,7 +21118,7 @@
         <v>1719922.04</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -21151,7 +21162,7 @@
         <v>1152486.42</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -21195,7 +21206,7 @@
         <v>146875.14000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>41</v>
       </c>
@@ -21239,7 +21250,7 @@
         <v>235601.16</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -21283,7 +21294,7 @@
         <v>825738.04</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -21327,7 +21338,7 @@
         <v>1678540.98</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -21371,7 +21382,7 @@
         <v>747939.49</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -21415,7 +21426,7 @@
         <v>579000.96</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -21459,7 +21470,7 @@
         <v>1128242.43</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -21503,7 +21514,7 @@
         <v>225246.9</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -21547,7 +21558,7 @@
         <v>407630.41</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -21591,7 +21602,7 @@
         <v>160935.32</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -21635,7 +21646,7 @@
         <v>138262.14000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -21679,7 +21690,7 @@
         <v>532885.74</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -21723,7 +21734,7 @@
         <v>1258.02</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -21767,7 +21778,7 @@
         <v>72975.600000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -21811,7 +21822,7 @@
         <v>119685</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -21855,7 +21866,7 @@
         <v>147031.74</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -21899,7 +21910,7 @@
         <v>255151.25</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -21943,7 +21954,7 @@
         <v>1375311.7</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -21987,7 +21998,7 @@
         <v>127722.96</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -22031,7 +22042,7 @@
         <v>65214.720000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -22075,7 +22086,7 @@
         <v>15103.47</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -22119,7 +22130,7 @@
         <v>93748.05</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -22163,7 +22174,7 @@
         <v>144521.01999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -22223,20 +22234,20 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.32421875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.32421875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -22245,7 +22256,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -22253,7 +22264,7 @@
         <v>6113845.8700000001</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -22261,7 +22272,7 @@
         <v>4722160.03</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -22269,7 +22280,7 @@
         <v>2846907.85</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -22277,7 +22288,7 @@
         <v>11082938.629999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -22285,7 +22296,7 @@
         <v>5761191.8599999994</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>98</v>
       </c>
@@ -22293,7 +22304,7 @@
         <v>1457942.76</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -22313,7 +22324,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -22339,7 +22350,7 @@
         <v>15233245.149999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
@@ -22359,7 +22370,7 @@
         <v>9372105.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>116</v>
       </c>
@@ -22379,7 +22390,7 @@
         <v>6323477.6400000015</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
@@ -22399,7 +22410,7 @@
         <v>22285993.479999997</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -22419,7 +22430,7 @@
         <v>8291514.7200000007</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -22439,7 +22450,7 @@
         <v>4185413.7900000005</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -22459,7 +22470,7 @@
         <v>27488820.030000005</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -22479,7 +22490,7 @@
         <v>93180569.909999996</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -22493,7 +22504,7 @@
         <v>10675</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -22507,7 +22518,7 @@
         <v>46967</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -22521,7 +22532,7 @@
         <v>48708</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -22535,7 +22546,7 @@
         <v>13637</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -22555,7 +22566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -22575,7 +22586,7 @@
         <v>6629567.4299999997</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -22601,7 +22612,7 @@
         <v>2741008.2300000004</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -22621,7 +22632,7 @@
         <v>9213010.120000001</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -22647,7 +22658,7 @@
         <v>6715420.0399999991</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="O26" s="3" t="s">
         <v>41</v>
       </c>
@@ -22667,7 +22678,7 @@
         <v>5879461.6799999997</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="O27" s="3" t="s">
         <v>14</v>
       </c>
@@ -22687,7 +22698,7 @@
         <v>3996539.4400000004</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>115</v>
       </c>
@@ -22713,7 +22724,7 @@
         <v>4903838.01</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>118</v>
       </c>
@@ -22739,7 +22750,7 @@
         <v>4089353.45</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
@@ -22765,7 +22776,7 @@
         <v>44168198.399999999</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
@@ -22785,7 +22796,7 @@
         <v>93180569.909999996</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>121</v>
       </c>
@@ -22799,7 +22810,7 @@
         <v>27488820.030000005</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>122</v>
       </c>
@@ -22813,7 +22824,7 @@
         <v>93180569.909999996</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
@@ -22821,7 +22832,7 @@
         <v>3996539.4400000004</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>124</v>
       </c>
@@ -22829,7 +22840,7 @@
         <v>4903838.01</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>125</v>
       </c>
@@ -22837,7 +22848,7 @@
         <v>4089353.45</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
@@ -22845,7 +22856,7 @@
         <v>44168198.399999999</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>127</v>
       </c>
@@ -22853,7 +22864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
@@ -22867,7 +22878,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -22881,7 +22892,7 @@
         <v>21347091.02</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
@@ -22895,7 +22906,7 @@
         <v>14094265.129999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
@@ -22909,7 +22920,7 @@
         <v>9170385.4900000002</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>24</v>
       </c>
@@ -22923,7 +22934,7 @@
         <v>33368932.109999999</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -22937,7 +22948,7 @@
         <v>14052706.58</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -22948,7 +22959,7 @@
         <v>5643356.5500000007</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>28</v>
       </c>
@@ -22962,7 +22973,7 @@
         <v>39672031.43</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>116</v>
       </c>
@@ -22976,7 +22987,7 @@
         <v>137348768.31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>115</v>
       </c>
@@ -22987,7 +22998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>16</v>
       </c>
@@ -22998,7 +23009,7 @@
         <v>3886643.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -23009,7 +23020,7 @@
         <v>888047.27999999991</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -23020,7 +23031,7 @@
         <v>2292443.4299999997</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
@@ -23031,7 +23042,7 @@
         <v>5233334.4000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>50</v>
       </c>
@@ -23042,7 +23053,7 @@
         <v>14556048.66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>30</v>
       </c>
@@ -23053,7 +23064,7 @@
         <v>120495.18</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>34</v>
       </c>
@@ -23064,7 +23075,7 @@
         <v>7412605.7100000009</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
@@ -23075,7 +23086,7 @@
         <v>610610</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
@@ -23086,7 +23097,7 @@
         <v>5929583.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>39</v>
       </c>
@@ -23097,7 +23108,7 @@
         <v>1220622.48</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
@@ -23108,7 +23119,7 @@
         <v>751944.18</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>37</v>
       </c>
@@ -23119,7 +23130,7 @@
         <v>1265819.6300000001</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>116</v>
       </c>
@@ -23130,7 +23141,7 @@
         <v>44168198.399999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
@@ -23141,7 +23152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>23</v>
       </c>
@@ -23152,7 +23163,7 @@
         <v>44168198.399999991</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>18</v>
       </c>
@@ -23160,7 +23171,7 @@
         <v>16891599.580000002</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>27</v>
       </c>
@@ -23168,7 +23179,7 @@
         <v>10858727.860000003</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>35</v>
       </c>
@@ -23176,7 +23187,7 @@
         <v>9669542.5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>116</v>
       </c>
@@ -23184,7 +23195,7 @@
         <v>44168198.400000006</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>115</v>
       </c>
@@ -23192,7 +23203,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>118</v>
       </c>
@@ -23200,7 +23211,7 @@
         <v>19186024.920000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>119</v>
       </c>
@@ -23208,7 +23219,7 @@
         <v>11129166.07</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>120</v>
       </c>
@@ -23216,7 +23227,7 @@
         <v>31898644.52</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>121</v>
       </c>
@@ -23224,7 +23235,7 @@
         <v>20330448.66</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>122</v>
       </c>
@@ -23232,7 +23243,7 @@
         <v>16630214.430000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>123</v>
       </c>
@@ -23240,7 +23251,7 @@
         <v>12427982.860000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>124</v>
       </c>
@@ -23248,7 +23259,7 @@
         <v>12372867.219999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>125</v>
       </c>
@@ -23256,7 +23267,7 @@
         <v>13373419.629999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>116</v>
       </c>
@@ -23276,11 +23287,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
